--- a/taskCapstone/Task capstone.xlsx
+++ b/taskCapstone/Task capstone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cybersoft-Homework\Web-Studious\taskCapstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C019C50D-F3C3-4D7E-A3FF-2FFF91EC1939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142E409F-486B-4431-89EF-DCE6C0F6BAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
   <dimension ref="A1:J986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.2" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>

--- a/taskCapstone/Task capstone.xlsx
+++ b/taskCapstone/Task capstone.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cybersoft-Homework\Web-Studious\taskCapstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C019C50D-F3C3-4D7E-A3FF-2FFF91EC1939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA389FF-9BBB-43F8-BDEB-FEA0A8310832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -124,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +151,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -293,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -349,6 +355,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -595,7 +607,7 @@
   <dimension ref="A1:J986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -816,10 +828,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="8">
-        <v>44175</v>
+        <v>45154</v>
       </c>
       <c r="C8" s="8">
-        <v>44178</v>
+        <v>45155</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -827,9 +839,11 @@
       <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>45155</v>
+      </c>
       <c r="G8" s="8">
-        <v>44179</v>
+        <v>45155</v>
       </c>
       <c r="H8" s="11">
         <v>1</v>
@@ -1053,14 +1067,30 @@
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="B16" s="8">
+        <v>45154</v>
+      </c>
+      <c r="C16" s="8">
+        <v>45155</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="8">
+        <v>45155</v>
+      </c>
+      <c r="G16" s="8">
+        <v>45155</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="J16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2034,17 +2064,17 @@
     <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="D2 D4:D15">
+  <conditionalFormatting sqref="D2 D4:D16">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H4:H15">
+  <conditionalFormatting sqref="H2 H4:H16">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/taskCapstone/Task capstone.xlsx
+++ b/taskCapstone/Task capstone.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cybersoft-Homework\Web-Studious\taskCapstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142E409F-486B-4431-89EF-DCE6C0F6BAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D32A7A42-2DD9-41B3-8547-30F005552EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -124,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +151,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -293,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -349,6 +355,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -595,7 +604,7 @@
   <dimension ref="A1:J986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -816,10 +825,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="8">
-        <v>44175</v>
+        <v>45153</v>
       </c>
       <c r="C8" s="8">
-        <v>44178</v>
+        <v>45153</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -827,9 +836,11 @@
       <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>45155</v>
+      </c>
       <c r="G8" s="8">
-        <v>44179</v>
+        <v>45155</v>
       </c>
       <c r="H8" s="11">
         <v>1</v>
@@ -1053,14 +1064,30 @@
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="B16" s="8">
+        <v>45154</v>
+      </c>
+      <c r="C16" s="8">
+        <v>45154</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="8">
+        <v>45155</v>
+      </c>
+      <c r="G16" s="8">
+        <v>45155</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="J16" s="8"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2034,12 +2061,12 @@
     <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="D2 D4:D15">
+  <conditionalFormatting sqref="D2 D4:D16">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H4:H15">
+  <conditionalFormatting sqref="H2 H4:H16">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
